--- a/04_Documents/list all and make table delphi ide shortcut key.xlsx
+++ b/04_Documents/list all and make table delphi ide shortcut key.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\minhwasoo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\12_dev\06_Delphi\04_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCF6983-A94A-4733-8CDB-CF50BB249F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035FDBEB-0E47-4182-8918-A77643DC2C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list all and make table delphi " sheetId="1" r:id="rId1"/>
@@ -980,8 +980,8 @@
   </sheetPr>
   <dimension ref="B1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1132,24 +1132,24 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1774,5 +1774,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>